--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H2">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I2">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J2">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="N2">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="O2">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="P2">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="Q2">
-        <v>0.1453459801933334</v>
+        <v>0.003603675775555555</v>
       </c>
       <c r="R2">
-        <v>1.30811382174</v>
+        <v>0.03243308197999999</v>
       </c>
       <c r="S2">
-        <v>0.006539043842419932</v>
+        <v>0.00304062132697444</v>
       </c>
       <c r="T2">
-        <v>0.01076566658189823</v>
+        <v>0.003473822577625184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H3">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I3">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J3">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>0.106753</v>
       </c>
       <c r="O3">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="P3">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="Q3">
-        <v>0.2197128210645556</v>
+        <v>0.05976436229111111</v>
       </c>
       <c r="R3">
-        <v>1.977415389581</v>
+        <v>0.5378792606199999</v>
       </c>
       <c r="S3">
-        <v>0.009884771273150029</v>
+        <v>0.05042651056680168</v>
       </c>
       <c r="T3">
-        <v>0.01627396211579414</v>
+        <v>0.05761084070673003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H4">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I4">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J4">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +688,22 @@
         <v>0.13719</v>
       </c>
       <c r="O4">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="P4">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="Q4">
-        <v>0.2823564857366667</v>
+        <v>0.07680414473333333</v>
       </c>
       <c r="R4">
-        <v>2.54120837163</v>
+        <v>0.6912373025999999</v>
       </c>
       <c r="S4">
-        <v>0.01270307879837993</v>
+        <v>0.06480392105757704</v>
       </c>
       <c r="T4">
-        <v>0.02091393087469015</v>
+        <v>0.07403661945384481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H5">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I5">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J5">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="N5">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="O5">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="P5">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="Q5">
-        <v>10.01293644069433</v>
+        <v>0.1166581563766667</v>
       </c>
       <c r="R5">
-        <v>60.07761864416599</v>
+        <v>0.6999489382599999</v>
       </c>
       <c r="S5">
-        <v>0.4504770636929359</v>
+        <v>0.09843096336537879</v>
       </c>
       <c r="T5">
-        <v>0.4944337416274751</v>
+        <v>0.07496969996288845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.228940333333334</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H6">
-        <v>6.686821</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I6">
-        <v>0.1731349056329954</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J6">
-        <v>0.1957994147469982</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02354</v>
+        <v>0.1128566666666667</v>
       </c>
       <c r="N6">
-        <v>0.07062</v>
+        <v>0.33857</v>
       </c>
       <c r="O6">
-        <v>0.01363425747161943</v>
+        <v>0.4246305004775321</v>
       </c>
       <c r="P6">
-        <v>0.01984867005197698</v>
+        <v>0.4651523831898322</v>
       </c>
       <c r="Q6">
-        <v>0.05246925544666668</v>
+        <v>0.1895442764222222</v>
       </c>
       <c r="R6">
-        <v>0.47222329902</v>
+        <v>1.7058984878</v>
       </c>
       <c r="S6">
-        <v>0.002360565880724792</v>
+        <v>0.15992902946617</v>
       </c>
       <c r="T6">
-        <v>0.003886357979683365</v>
+        <v>0.1827143250126702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>6.686821</v>
       </c>
       <c r="I7">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J7">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03558433333333334</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="N7">
-        <v>0.106753</v>
+        <v>0.006437</v>
       </c>
       <c r="O7">
-        <v>0.02061027878600664</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="P7">
-        <v>0.0300043199385259</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="Q7">
-        <v>0.07931535580144446</v>
+        <v>0.004782562975222223</v>
       </c>
       <c r="R7">
-        <v>0.713838202213</v>
+        <v>0.043043066777</v>
       </c>
       <c r="S7">
-        <v>0.003568358672684987</v>
+        <v>0.004035313908842751</v>
       </c>
       <c r="T7">
-        <v>0.005874828283845062</v>
+        <v>0.004610230297335778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>6.686821</v>
       </c>
       <c r="I8">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J8">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04573</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="N8">
-        <v>0.13719</v>
+        <v>0.106753</v>
       </c>
       <c r="O8">
-        <v>0.02648660128195228</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="P8">
-        <v>0.03855903489706489</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="Q8">
-        <v>0.1019294414433333</v>
+        <v>0.07931535580144446</v>
       </c>
       <c r="R8">
-        <v>0.9173649729900001</v>
+        <v>0.713838202213</v>
       </c>
       <c r="S8">
-        <v>0.004585755213489581</v>
+        <v>0.06692276925752527</v>
       </c>
       <c r="T8">
-        <v>0.007549836466054387</v>
+        <v>0.07645734269558586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,45 +980,45 @@
         <v>6.686821</v>
       </c>
       <c r="I9">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J9">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.621679</v>
+        <v>0.04573</v>
       </c>
       <c r="N9">
-        <v>3.243358</v>
+        <v>0.13719</v>
       </c>
       <c r="O9">
-        <v>0.9392688624604216</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="P9">
-        <v>0.9115879751124322</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="Q9">
-        <v>3.614625730819667</v>
+        <v>0.1019294414433333</v>
       </c>
       <c r="R9">
-        <v>21.687754384918</v>
+        <v>0.9173649729900001</v>
       </c>
       <c r="S9">
-        <v>0.162620225866096</v>
+        <v>0.08600352884171772</v>
       </c>
       <c r="T9">
-        <v>0.1784883920174154</v>
+        <v>0.09825656276083508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.470643</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H10">
-        <v>8.941286</v>
+        <v>6.686821</v>
       </c>
       <c r="I10">
-        <v>0.3472611367601188</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J10">
-        <v>0.2618132840531441</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02354</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="N10">
-        <v>0.07062</v>
+        <v>0.138919</v>
       </c>
       <c r="O10">
-        <v>0.01363425747161943</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="P10">
-        <v>0.01984867005197698</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="Q10">
-        <v>0.10523893622</v>
+        <v>0.1548210810831667</v>
       </c>
       <c r="R10">
-        <v>0.63143361732</v>
+        <v>0.9289264864990001</v>
       </c>
       <c r="S10">
-        <v>0.004734647748474707</v>
+        <v>0.1306311417358691</v>
       </c>
       <c r="T10">
-        <v>0.005196645490395384</v>
+        <v>0.09949488623203183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.470643</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H11">
-        <v>8.941286</v>
+        <v>6.686821</v>
       </c>
       <c r="I11">
-        <v>0.3472611367601188</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J11">
-        <v>0.2618132840531441</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03558433333333334</v>
+        <v>0.1128566666666667</v>
       </c>
       <c r="N11">
-        <v>0.106753</v>
+        <v>0.33857</v>
       </c>
       <c r="O11">
-        <v>0.02061027878600664</v>
+        <v>0.4246305004775321</v>
       </c>
       <c r="P11">
-        <v>0.0300043199385259</v>
+        <v>0.4651523831898322</v>
       </c>
       <c r="Q11">
-        <v>0.1590848507263334</v>
+        <v>0.2515507762188889</v>
       </c>
       <c r="R11">
-        <v>0.954509104358</v>
+        <v>2.26395698597</v>
       </c>
       <c r="S11">
-        <v>0.007157148840171628</v>
+        <v>0.2122473559292978</v>
       </c>
       <c r="T11">
-        <v>0.007855529538886696</v>
+        <v>0.2424865110717686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H12">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I12">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J12">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.04573</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="N12">
-        <v>0.13719</v>
+        <v>0.006437</v>
       </c>
       <c r="O12">
-        <v>0.02648660128195228</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="P12">
-        <v>0.03855903489706489</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="Q12">
-        <v>0.20444250439</v>
+        <v>0.001181946920333334</v>
       </c>
       <c r="R12">
-        <v>1.22665502634</v>
+        <v>0.007091681522</v>
       </c>
       <c r="S12">
-        <v>0.009197767270082766</v>
+        <v>0.0009972742380696699</v>
       </c>
       <c r="T12">
-        <v>0.01009526755632034</v>
+        <v>0.0007595714585386106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1222,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H13">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I13">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J13">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.106753</v>
+      </c>
+      <c r="O13">
+        <v>0.1338883534202026</v>
+      </c>
+      <c r="P13">
+        <v>0.1466651279282398</v>
+      </c>
+      <c r="Q13">
+        <v>0.01960173676966667</v>
+      </c>
+      <c r="R13">
+        <v>0.117610420618</v>
+      </c>
+      <c r="S13">
+        <v>0.01653907359587563</v>
+      </c>
+      <c r="T13">
+        <v>0.01259694452592392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.621679</v>
-      </c>
-      <c r="N13">
-        <v>3.243358</v>
-      </c>
-      <c r="O13">
-        <v>0.9392688624604216</v>
-      </c>
-      <c r="P13">
-        <v>0.9115879751124322</v>
-      </c>
-      <c r="Q13">
-        <v>7.249947869596999</v>
-      </c>
-      <c r="R13">
-        <v>28.999791478388</v>
-      </c>
-      <c r="S13">
-        <v>0.3261715729013897</v>
-      </c>
-      <c r="T13">
-        <v>0.2386658414675416</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.550853</v>
+      </c>
+      <c r="H14">
+        <v>1.101706</v>
+      </c>
+      <c r="I14">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J14">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04573</v>
+      </c>
+      <c r="N14">
+        <v>0.13719</v>
+      </c>
+      <c r="O14">
+        <v>0.172062079807758</v>
+      </c>
+      <c r="P14">
+        <v>0.188481718551003</v>
+      </c>
+      <c r="Q14">
+        <v>0.02519050769</v>
+      </c>
+      <c r="R14">
+        <v>0.15114304614</v>
+      </c>
+      <c r="S14">
+        <v>0.02125462990846326</v>
+      </c>
+      <c r="T14">
+        <v>0.01618853633632313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.550853</v>
+      </c>
+      <c r="H15">
+        <v>1.101706</v>
+      </c>
+      <c r="I15">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J15">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.06945950000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.138919</v>
+      </c>
+      <c r="O15">
+        <v>0.2613458568206203</v>
+      </c>
+      <c r="P15">
+        <v>0.1908571459974254</v>
+      </c>
+      <c r="Q15">
+        <v>0.03826197395350001</v>
+      </c>
+      <c r="R15">
+        <v>0.153047895814</v>
+      </c>
+      <c r="S15">
+        <v>0.03228375171937248</v>
+      </c>
+      <c r="T15">
+        <v>0.01639255980250509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.550853</v>
+      </c>
+      <c r="H16">
+        <v>1.101706</v>
+      </c>
+      <c r="I16">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J16">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.33857</v>
+      </c>
+      <c r="O16">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="P16">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="Q16">
+        <v>0.06216743340333333</v>
+      </c>
+      <c r="R16">
+        <v>0.37300460042</v>
+      </c>
+      <c r="S16">
+        <v>0.05245411508206433</v>
+      </c>
+      <c r="T16">
+        <v>0.03995154710539341</v>
       </c>
     </row>
   </sheetData>
